--- a/biology/Botanique/Ambelania_acida/Ambelania_acida.xlsx
+++ b/biology/Botanique/Ambelania_acida/Ambelania_acida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambelania acida est une espèce d'arbres sud-américains, appartenant à la famille des Apocynaceae. C'est l'espèce type du genre Ambelania Aubl.
-Il est connu en Guyane sous les noms de Papaye biche, Graine biche, Bagasse, Quimbédents (Créole), Pau de leite, Pepino-do-mato, Pepino-doce (Portugais)[3], Akusi walapulu [cacao de l'Agouti], Akusi ãkãnge (Wayãpi), Inuβa (Palikur), Ambarari, Ambelani (Kali'na)[4], Bati bati, Malu (Nenge tongo), Akusi walapoulou (Tupi-guarani), Wetïp, Wïtïp (Karib) , Inoupa, Makoriro, Makoulira (Arawak)[5], Mapa (Aluku)[6], Mambaye (Taki taki)[7].
-Au Guyana, on l'appelle Makurriro, Makoriro. Au Suriname c'est Balati, Batbati, bati bati (Sranan tongo), Mambali (Saramaka)[7].
+Il est connu en Guyane sous les noms de Papaye biche, Graine biche, Bagasse, Quimbédents (Créole), Pau de leite, Pepino-do-mato, Pepino-doce (Portugais), Akusi walapulu [cacao de l'Agouti], Akusi ãkãnge (Wayãpi), Inuβa (Palikur), Ambarari, Ambelani (Kali'na), Bati bati, Malu (Nenge tongo), Akusi walapoulou (Tupi-guarani), Wetïp, Wïtïp (Karib) , Inoupa, Makoriro, Makoulira (Arawak), Mapa (Aluku), Mambaye (Taki taki).
+Au Guyana, on l'appelle Makurriro, Makoriro. Au Suriname c'est Balati, Batbati, bati bati (Sranan tongo), Mambali (Saramaka).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambelania acida est un arbuste ou un arbre haut de (1)5-20(30) m. Son écorce brun rougeâtre est finement fissuré en rectangles mesurant 3-5 mm de côté. S'il est blessé, il exsude un abondant latex blanc et collant.
 Les jeunes rameaux sont pubescents brunâtres.
@@ -528,8 +542,8 @@
 Les anthères sont toutes fertiles, mucronées, et basifixes.
 L'ovaire est conique, long de 2 mm avec le stigmate portant deux appendices aussi long que la "tête".
 Les fruits sont des baies jaunes, charnues avec un abondant suc laiteux collant, oblongues-elliptiques, glabres, et plus ou moins verruqueux, sillonnées longitudinalement, mesurant environ (5)10 x (3)4 cm.
-Les nombreuses graines sont arrondies, de forme oblongues-elliptiques, aplaties dans leur section transversale, de couleur brun foncé à noire, lisses, et longues d'environ 5 à 8 mm pour 3 à 4 mm de large[3],[7],[5],[8]
-Son pollen a été décrit[9].
+Les nombreuses graines sont arrondies, de forme oblongues-elliptiques, aplaties dans leur section transversale, de couleur brun foncé à noire, lisses, et longues d'environ 5 à 8 mm pour 3 à 4 mm de large
+Son pollen a été décrit.
 </t>
         </is>
       </c>
@@ -558,9 +572,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambelania acida est présent de la Colombie au Brésil (Amazonas, Amapá, Pará) en passant par le Venezuela (Bolívar), les Guyanes (Guyana, Suriname, Guyane)[7],[2],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambelania acida est présent de la Colombie au Brésil (Amazonas, Amapá, Pará) en passant par le Venezuela (Bolívar), les Guyanes (Guyana, Suriname, Guyane).
 </t>
         </is>
       </c>
@@ -589,13 +605,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambelania acida fleurit en octobre-novembre et fructifie en janvier-mai, octobre. C'est un petit arbre commun de la forêt primaire et des vieilles forêts secondaires[4] de terre ferme (non inondées). Sa floraison est probablement nocturne[3].
-Au Venezuela, on le rencontre dans les forêts de terre ferme et lisières autour de 800–900 m d'altitude[10].
-Ses fruits son notamment consommés par les tapirs[11].
-Culture
-On multiplie Ambelania acida par grainess.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambelania acida fleurit en octobre-novembre et fructifie en janvier-mai, octobre. C'est un petit arbre commun de la forêt primaire et des vieilles forêts secondaires de terre ferme (non inondées). Sa floraison est probablement nocturne.
+Au Venezuela, on le rencontre dans les forêts de terre ferme et lisières autour de 800–900 m d'altitude.
+Ses fruits son notamment consommés par les tapirs.
 </t>
         </is>
       </c>
@@ -621,17 +637,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Écologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambelania acida est bien connue pour ses fruits comestibles : on bat le fruit avec un couteau jusqu'à ce que la peau se décolle avant de consommer sa chair acidulée et rafraîchissante (on évite de consommer la peau)[5]. On peut les préparer sous forme de bonbons, de confitures, de sorbets ou de jus de fruits. Il est conseillé de couper les fruits et de les laisser tremper dans l'eau pour éliminer l'excès de latex (la congélation est également efficace). Le latex étant liposoluble, il est recommandé d'utiliser du lait (non écrémé) pour réaliser les jus[12],[8].
-C'est une des espèces sauvages les plus consommées chez les (Aluku)[6],[13].
-Chez les Kali'na d'Iracoubo et les Wayãpi, le latex blanc et doux d’Ambelania acida est léché sur le tronc incisé pour soigner la diarrhée. Ils consomment le fruit après l'avoir battu (pour coaguler son abondant latex) : sa chair est également considérée comme antidiarrhéique (l'usage est similaire pour Ambelania acida)[4]. Cet usage était déjà signalé au XIXe siècle par Schomburgk chez les amérindiens du Guyana[14].
-Son latex est souvent mélangé en petites quantités pour adultérer la gomme de Balata ou le latex de Couma recherché pour la fabrication de chewing-gum[7].
-Ambelania acida est parfois planté autour des maisons[15].
-L'extrait de Ambelania acida a des propriétés cytotoxiques et antimicrobiennes[16].
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On multiplie Ambelania acida par grainess.
 </t>
         </is>
       </c>
@@ -657,15 +674,90 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambelania acida est bien connue pour ses fruits comestibles : on bat le fruit avec un couteau jusqu'à ce que la peau se décolle avant de consommer sa chair acidulée et rafraîchissante (on évite de consommer la peau). On peut les préparer sous forme de bonbons, de confitures, de sorbets ou de jus de fruits. Il est conseillé de couper les fruits et de les laisser tremper dans l'eau pour éliminer l'excès de latex (la congélation est également efficace). Le latex étant liposoluble, il est recommandé d'utiliser du lait (non écrémé) pour réaliser les jus,.
+C'est une des espèces sauvages les plus consommées chez les (Aluku),.
+Chez les Kali'na d'Iracoubo et les Wayãpi, le latex blanc et doux d’Ambelania acida est léché sur le tronc incisé pour soigner la diarrhée. Ils consomment le fruit après l'avoir battu (pour coaguler son abondant latex) : sa chair est également considérée comme antidiarrhéique (l'usage est similaire pour Ambelania acida). Cet usage était déjà signalé au XIXe siècle par Schomburgk chez les amérindiens du Guyana.
+Son latex est souvent mélangé en petites quantités pour adultérer la gomme de Balata ou le latex de Couma recherché pour la fabrication de chewing-gum.
+Ambelania acida est parfois planté autour des maisons.
+L'extrait de Ambelania acida a des propriétés cytotoxiques et antimicrobiennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ambelania_acida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambelania_acida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les graines contiennent des alcaloïdes indoliques (révélés en CCM avec le réactif au sulfate sérique)[4].
-Les feuilles et écorces de tige sont riches en triterpènes[17], comme les autres Tabernaemontaneae.
-Extrait de la « Flore médicale des Antilles » (1829)
-En 1822, le botaniste Michel Étienne Descourtilz commente Ambelania acida ainsi [informations à considérer avec précaution au vu des connaissances de l'époque] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines contiennent des alcaloïdes indoliques (révélés en CCM avec le réactif au sulfate sérique).
+Les feuilles et écorces de tige sont riches en triterpènes, comme les autres Tabernaemontaneae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ambelania_acida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambelania_acida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Extrait de la « Flore médicale des Antilles » (1829)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1822, le botaniste Michel Étienne Descourtilz commente Ambelania acida ainsi [informations à considérer avec précaution au vu des connaissances de l'époque] :
 « AMBELANIER ACIDE. 
 (Détersif. )
 Synonymie. Ambelania acida. Aubl. Hist. Guiane, 265, t. 104. Lin. — Pentandrie digynie. — Jussieu, famille des Apocins. — Paraverio des Galibis, et Quienbiendent des créoles.
@@ -677,37 +769,39 @@
 Le fruit est une espèce de baie ou de capsule charnue, ovale-oblongue, d'un jaune citron, glabre, un peu ridée ou chargée de verrues, et partagée en deux loges par une cloison à laquelle sont attachées de larges semences arrondies, aplaties, dont l'enveloppe est brune et chagrinée. (Enc.)
 Analyse chimique. Le suc laiteux de l'Ambélanier contient du caoutchouc; une résine acre et purgative; une gomme jaune ; de l'albumine ; une huile grasse et une assez grande quantité d'acide tartrique , plus un principe mucoso-sucré dans les fruits et les arilles des graines.
 Propriétés médicinales. Les Galibis vantent, avec exagération sans doute, l'usage d'une espèce de limonade faite avec les fruits de l'Ambélanier non dépouillés de leur écorce ; ils la recommandent dans la maladie de Siam, comme capable, par sa vertu laxative, de provoquer des évacuations dérivatives et quelquefois salutaires. L'onguent digestif que l'on fait avec ces fruits, le sucre et le tafia, est employé avec succès dans la cure des ulcères vieux et rebelles, tels que les pians, le mal de Naples et la syphilis confirmée. L'application de ce digestif cause beaucoup de douleur. J'ai vu des soldats demander la mort pour être délivrés de ces souffrances cuisantes. Les lotions faites avec toute la plante sont détersives. Les fruits, en compote, sont astringens et recommandés aux dysentériques. »
-— M.É. Descourtilz, 1822[18].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+— M.É. Descourtilz, 1822.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ambelania_acida</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ambelania_acida</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[19] : 
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « AMBELANIA acida. (Tabula 104.)
 Arbor, trunco octo-pedali, ad ſummitatem ramoſo; ramis nodoſis, folioſis, rectis, oblongis ; folia oppoſita, ovato-oblonga, glabra, integerrima, ad margines undulata, brevi petiolata; petiolis ſemi-amplexantibus. Flores corymboſi, axillares. Corymbi ſubſeſſiles, tri auc quadri-flori ; pedunculus corymbi, &amp; ſinguli floris ad baſim squamula munitur. 
 Fructus decorticatus in aqua maceratus edulis, ſaporis grati &amp; acidi. 
